--- a/docs/argo-diagnosticreport.xlsx
+++ b/docs/argo-diagnosticreport.xlsx
@@ -491,10 +491,10 @@
 </t>
   </si>
   <si>
-    <t>US Core Laboratory Report Order Code</t>
-  </si>
-  <si>
-    <t>The test, panel or battery that was ordered.</t>
+    <t>US Core Report Code</t>
+  </si>
+  <si>
+    <t>The test, panel, report, or note that was ordered.</t>
   </si>
   <si>
     <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
@@ -596,10 +596,10 @@
 Period {[]} {[]}</t>
   </si>
   <si>
-    <t>Time of Radiology Procedure</t>
-  </si>
-  <si>
-    <t>This is the Datetime or Period when the radiology image was done.</t>
+    <t>Time of the report or note</t>
+  </si>
+  <si>
+    <t>This is the Datetime or Period when the report or note was written.</t>
   </si>
   <si>
     <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>

--- a/docs/argo-diagnosticreport.xlsx
+++ b/docs/argo-diagnosticreport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="303">
   <si>
     <t>Path</t>
   </si>
@@ -438,6 +438,10 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiagnosticReport-1:When DiagnosticReport.status is final/amended/corrected/appended, the presentedForm, conclusion or codedDiagnosis must be present {(DiagnosticReport.status = 'final' or DiagnosticReport.status = 'amended' or DiagnosticReport.status = 'corrected' or DiagnosticReport.status = 'appended') implies (presentedForm.exists() or conclusion.exists() or codedDiagnosis.exists())}
+</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -2600,28 +2604,28 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2640,16 +2644,16 @@
         <v>54</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2679,7 +2683,7 @@
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>43</v>
@@ -2697,7 +2701,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2715,22 +2719,22 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2749,16 +2753,16 @@
         <v>54</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2787,10 +2791,10 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>43</v>
@@ -2808,7 +2812,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>53</v>
@@ -2823,25 +2827,25 @@
         <v>43</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2860,17 +2864,17 @@
         <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>43</v>
@@ -2919,7 +2923,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2934,25 +2938,25 @@
         <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2971,19 +2975,19 @@
         <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -3032,7 +3036,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3047,25 +3051,25 @@
         <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3084,19 +3088,19 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3145,7 +3149,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3160,25 +3164,25 @@
         <v>43</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3197,19 +3201,19 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3258,7 +3262,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3276,22 +3280,22 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3310,13 +3314,13 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3367,7 +3371,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3379,24 +3383,24 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3419,13 +3423,13 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3476,7 +3480,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3497,7 +3501,7 @@
         <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3505,7 +3509,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3534,7 +3538,7 @@
         <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>102</v>
@@ -3587,7 +3591,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3608,7 +3612,7 @@
         <v>43</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -3616,11 +3620,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3645,7 +3649,7 @@
         <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>102</v>
@@ -3698,7 +3702,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3727,7 +3731,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3750,13 +3754,13 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3783,13 +3787,13 @@
         <v>43</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>43</v>
@@ -3807,7 +3811,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3822,13 +3826,13 @@
         <v>43</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -3836,7 +3840,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3859,19 +3863,19 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -3920,7 +3924,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -3935,13 +3939,13 @@
         <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -3949,7 +3953,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3972,19 +3976,19 @@
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4033,7 +4037,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4051,10 +4055,10 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4062,11 +4066,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4085,17 +4089,17 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4144,7 +4148,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4162,10 +4166,10 @@
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4173,7 +4177,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4196,16 +4200,16 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4255,7 +4259,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4276,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4284,11 +4288,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4307,17 +4311,17 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4366,7 +4370,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4378,16 +4382,16 @@
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4395,7 +4399,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4418,13 +4422,13 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4475,7 +4479,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4496,7 +4500,7 @@
         <v>43</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4504,7 +4508,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4533,7 +4537,7 @@
         <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>102</v>
@@ -4586,7 +4590,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4607,7 +4611,7 @@
         <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4615,11 +4619,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4644,7 +4648,7 @@
         <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>102</v>
@@ -4697,7 +4701,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4726,7 +4730,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4749,19 +4753,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -4810,7 +4814,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4831,7 +4835,7 @@
         <v>43</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -4839,7 +4843,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4862,13 +4866,13 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4919,7 +4923,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>53</v>
@@ -4940,7 +4944,7 @@
         <v>43</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -4948,11 +4952,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4971,17 +4975,17 @@
         <v>43</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5030,7 +5034,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5048,10 +5052,10 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5059,7 +5063,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5082,13 +5086,13 @@
         <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5115,13 +5119,13 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5139,7 +5143,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5157,10 +5161,10 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
@@ -5168,7 +5172,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5191,19 +5195,19 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
@@ -5252,7 +5256,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5270,10 +5274,10 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>

--- a/docs/argo-diagnosticreport.xlsx
+++ b/docs/argo-diagnosticreport.xlsx
@@ -1125,45 +1125,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="59.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="46.80859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.94921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="93.09375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="117.3671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/argo-diagnosticreport.xlsx
+++ b/docs/argo-diagnosticreport.xlsx
@@ -1125,45 +1125,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.65625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="59.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.06640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.7578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="46.80859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.94921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.0703125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="92.609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="117.3671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="93.09375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
